--- a/biology/Botanique/Begonia_wasshauseniana/Begonia_wasshauseniana.xlsx
+++ b/biology/Botanique/Begonia_wasshauseniana/Begonia_wasshauseniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia wasshauseniana est une espèce de plantes de la famille des Begoniaceae.
 Elle a été décrite en 2012 par Ludovic Jean Charles Kollmann (1965-) et Ariane Luna Peixoto (1947-).
-L'épithète spécifique « wasshauseniana » est dédié au botaniste germano-américain Dieter Carl Wasshausen[2].
+L'épithète spécifique « wasshauseniana » est dédié au botaniste germano-américain Dieter Carl Wasshausen.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante saxicole se présentant comme un arbuste de 1,5 à 2 m de haut.
 Les feuilles sont sur des pétioles 30 x 2,2 mm, rougeâtres et poilues.
 Les fleurs mâles (étaminées) sont sur des pédicelles d'environ 6 mm de long ; elles sont de couleur rose avec des trichomes de couleur rouille, avec 2-sépales et 2 pétales. Les filets sont soudés en une courte colonne.
 Les fleurs femelles (pistilées) sont sur des pédicelles de 4 à 5,5 mm de long ; elles sont de couleur blanche.
-Les fruits sont des capsules de 3-5 x 4,5 mm, blanches ; pourvues d'ailes 3,5-4 x 1-1,3 mm, qui produisent des graines oblongues de 0,4 x 0,2 mm[2].
+Les fruits sont des capsules de 3-5 x 4,5 mm, blanches ; pourvues d'ailes 3,5-4 x 1-1,3 mm, qui produisent des graines oblongues de 0,4 x 0,2 mm.
 </t>
         </is>
       </c>
